--- a/Deliverable 2 Physical Design and Data Staging/DataStagingTeamPlanning.xlsx
+++ b/Deliverable 2 Physical Design and Data Staging/DataStagingTeamPlanning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iris Ji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iris Ji\Documents\GitHub\COVID-19_Statistic_Analysis_Project\Deliverable 2 Physical Design and Data Staging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47933649-1993-4F77-A39C-0F8C62429698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F505CA9A-8ADD-40A9-A9F4-C5D897C62913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="6915" windowWidth="28800" windowHeight="13635" xr2:uid="{E856A244-1E33-4B30-A94F-FDDE8D23B711}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15435" xr2:uid="{E856A244-1E33-4B30-A94F-FDDE8D23B711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,7 +819,7 @@
       <c r="E14" s="10">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14" s="2"/>
